--- a/biology/Médecine/Imidazole/Imidazole.xlsx
+++ b/biology/Médecine/Imidazole/Imidazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'imidazole (deux tautomères, 1H et 3H) est un composé organique aromatique hétérocyclique. C'est un cycle à cinq atomes contenant trois atomes de carbone et deux atomes d'azote en position 1 et 3. Le doublet électronique libre de l'azote 3 n'entre pas dans l'aromaticité car l'orbitale p est déjà utilisée pour faire une liaison π (donc son doublet est dans une orbitale moléculaire sp2), alors que celui de l'azote 1 y est inclus : il s'hybride sp2 et place son doublet dans une orbitale p pure afin de participer au phénomène de conjugaison.
@@ -512,7 +524,9 @@
           <t>Dérivés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sont appelés imidazoles les dérivés de l'imidazole dont :
 la biotine
